--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_205.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_205.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,622 +488,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_15</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.03870192307692308</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj'], ['A:min7/C', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3142857142857143</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C'], ['D:min7', 'G:7', 'C']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(9.14, 16.64), (73.3, 80.18)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(12.03, 14.36), (11.26, 13.58)]</t>
+          <t>[('0:00:44', '0:01:01.060000'), ('0:02:09.380000', '0:02:14.380000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:01:03.240000', '0:01:04.620000'), ('0:01:01.600000', '0:01:03.840000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_42</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3441176470588235</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:7/E', 'F:maj']]</t>
-        </is>
+          <t>isophonics_246</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_22</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1104166666666667</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7', 'Bb']]</t>
+          <t>[['A', 'D', 'D']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(77.04, 82.34)]</t>
+          <t>[['F#', 'B', 'B/7']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(96.241, 101.882)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:55.641383', '0:01:01.040381')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:04.940612', '0:00:06.577619')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_197</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_168</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.08712121212121213</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_92</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1464285714285714</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'E:min']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(19.977483, 31.599071)]</t>
+          <t>[['E:7', 'A', 'A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(36.611293, 40.651565)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:01:00.720000', '0:01:08.120000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:24.631133', '0:00:29.751133')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.06361746361746362</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
+          <t>jaah_54</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_43</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05879120879120879</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['Eb', 'Eb', 'Eb:7'], ['Bb:7', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(144.085784, 149.240614)]</t>
+          <t>[['Eb', 'Eb', 'Eb:7'], ['Bb:7', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(16.02, 22.5)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:07.920000', '0:00:15.140000'), ('0:00:29.740000', '0:00:40.370000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:06.950000', '0:00:11.470000'), ('0:00:22.430000', '0:00:24.580000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.4017857142857143</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>isophonics_123</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_194</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1230195712954334</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>[['A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(65.44, 66.82), (63.6, 66.04)]</t>
+          <t>[['G', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(1.64, 9.94), (59.22, 66.88)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:09.156734', '0:00:13.057687')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:02:22.379117', '0:02:29.240614')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_140</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(31.0, 43.66)]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(103.0, 122.84)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:08.740000', '0:00:23.220000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:00.480000', '0:00:09.640000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1019736842105263</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C/5', 'D/3', 'G']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(18.675377, 23.261318)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(33.466326, 38.923015)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:24.260000', '0:00:27.200000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:54.780000', '0:00:57.520000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(41.32, 49.38)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(94.4, 104.48)]</t>
+          <t>[('0:01:03.240000', '0:01:04.620000'), ('0:01:01.600000', '0:01:03.840000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:01.340000', '0:00:08.860000'), ('0:00:54.180000', '0:01:01.460000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.150268336314848</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_251</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4444444444444444</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>[['G', 'C', 'G', 'C', 'G', 'C', 'G'], ['C', 'G', 'C', 'G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(31.34, 33.52)]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'D'], ['G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(34.64, 39.0)]</t>
+          <t>[('0:00:00.465952', '0:00:13.353300'), ('0:00:26.391305', '0:00:37.943232')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:00:07.525011', '0:00:20.319206'), ('0:00:09.370997', '0:00:22.141972')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1547619047619048</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'C/5']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(0.78, 19.18)]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(12.094553, 16.853782)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:03:50.780000', '0:04:06.860000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:17.900000', '0:00:21.420000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_225</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1098901098901099</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F#:7', 'G:(3,5)', 'B:min/F#']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4642857142857143</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:7', 'F', 'A:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(67.3, 82.94)]</t>
+          <t>[['C#', 'F#/5', 'C#']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(56.35, 63.977)]</t>
+          <t>[('0:00:56.720000', '0:00:58.880000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:31.469410', '0:01:58.925813')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3506493506493507</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(23.26, 26.8)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(63.84, 65.24)]</t>
+          <t>[('0:02:30.160000', '0:02:34.940000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:02:28.280000', '0:02:33.260000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1238738738738739</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Bb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb', 'Eb']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(51.839081, 63.042709)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(64.139886, 71.001383)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:01:52.240000', '0:01:57.700000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:59.320000', '0:02:04.320000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_220</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3018433179723502</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Bb', 'Bb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_204</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_24</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D', 'D', 'D/7', 'D/6']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(0.94, 5.35)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(0.325509, 3.756394)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:43.100000', '0:00:47.740000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:51.700000', '0:00:57.700000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_69</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.09823284823284824</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:7', 'E', 'A/3']]</t>
-        </is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(45.712, 51.648)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(50.0, 56.61)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:00.600000', '0:00:40.540000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:00.380000', '0:00:31.160000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_30</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_180</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.08488372093023255</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F', 'Bb']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F', 'C', 'F']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(0.46, 3.22)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(0.440395, 5.558652)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
